--- a/demo/deposit/test_data/deposit_data.xlsx
+++ b/demo/deposit/test_data/deposit_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>主账号</t>
   </si>
@@ -49,13 +49,22 @@
     <t>693005664</t>
   </si>
   <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t>73332.99</t>
-  </si>
-  <si>
-    <t>73,332.00</t>
+    <t>6666.66</t>
+  </si>
+  <si>
+    <t>93,830.00</t>
+  </si>
+  <si>
+    <t>100,496.00</t>
+  </si>
+  <si>
+    <t>693005666</t>
+  </si>
+  <si>
+    <t>7,176.00</t>
+  </si>
+  <si>
+    <t>8,064.00</t>
   </si>
 </sst>
 </file>
@@ -65,8 +74,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,18 +95,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,51 +208,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,60 +226,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,26 +434,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +460,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,23 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,8 +511,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -542,16 +551,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -560,115 +569,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1030,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1074,18 +1083,35 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:7">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>888.99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="4:7">
       <c r="D4" s="3"/>
@@ -1246,6 +1272,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="10000000027@uitest.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="10000000027@uitest.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/demo/deposit/test_data/deposit_data.xlsx
+++ b/demo/deposit/test_data/deposit_data.xlsx
@@ -1,239 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>主账号</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>登录密码</t>
-  </si>
-  <si>
-    <t>交易账号</t>
-  </si>
-  <si>
-    <t>入金金额</t>
-  </si>
-  <si>
-    <t>入金前金额</t>
-  </si>
-  <si>
-    <t>入金后金额</t>
-  </si>
-  <si>
-    <t>1200008354</t>
-  </si>
-  <si>
-    <t>10000000027@uitest.com</t>
-  </si>
-  <si>
-    <t>Tl123456</t>
-  </si>
-  <si>
-    <t>693005664</t>
-  </si>
-  <si>
-    <t>6666.66</t>
-  </si>
-  <si>
-    <t>93,830.00</t>
-  </si>
-  <si>
-    <t>100,496.00</t>
-  </si>
-  <si>
-    <t>693005666</t>
-  </si>
-  <si>
-    <t>7,176.00</t>
-  </si>
-  <si>
-    <t>8,064.00</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -533,178 +473,190 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -759,11 +711,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1023,258 +1038,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1" customWidth="1"/>
+    <col width="11.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="24.25" customWidth="1" style="1" min="2" max="2"/>
+    <col width="23.625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="15" customWidth="1" style="1" min="4" max="5"/>
+    <col width="19.875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13.875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>主账号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>登录密码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>交易账号</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>入金金额</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>入金前金额</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>入金后金额</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>1200008354</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>10000000027@uitest.com</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Tl123456</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>693005664</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>6666.66</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>119,830.00</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>126,496.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>1200008354</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>10000000027@uitest.com</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Tl123456</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>693005666</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="n">
         <v>888.99</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="4:7">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="4:7">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="4:7">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="4:7">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="4:7">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="4:7">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="4:7">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="4:7">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="4:7">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="4:7">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="4:7">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="4:7">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="4:7">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="4:7">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="4:7">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="4:7">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="4:7">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="4:7">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="4:7">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="4:7">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>3,569.00</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>4,457.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="11" t="n"/>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="11" t="n"/>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="11" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="11" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="11" t="n"/>
+      <c r="G8" s="11" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="11" t="n"/>
+      <c r="E9" s="11" t="n"/>
+      <c r="F9" s="11" t="n"/>
+      <c r="G9" s="11" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="11" t="n"/>
+      <c r="G10" s="11" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="11" t="n"/>
+      <c r="G11" s="11" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="11" t="n"/>
+      <c r="G12" s="11" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="11" t="n"/>
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="11" t="n"/>
+      <c r="G13" s="11" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="11" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="11" t="n"/>
+      <c r="E15" s="11" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="11" t="n"/>
+      <c r="G16" s="11" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="11" t="n"/>
+      <c r="E17" s="11" t="n"/>
+      <c r="F17" s="11" t="n"/>
+      <c r="G17" s="11" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="11" t="n"/>
+      <c r="F18" s="11" t="n"/>
+      <c r="G18" s="11" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="11" t="n"/>
+      <c r="F19" s="11" t="n"/>
+      <c r="G19" s="11" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="11" t="n"/>
+      <c r="G20" s="11" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="11" t="n"/>
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="11" t="n"/>
+      <c r="G21" s="11" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="11" t="n"/>
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="11" t="n"/>
+      <c r="G23" s="11" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="11" t="n"/>
+      <c r="G24" s="11" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="11" t="n"/>
+      <c r="E25" s="11" t="n"/>
+      <c r="F25" s="11" t="n"/>
+      <c r="G25" s="11" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="11" t="n"/>
+      <c r="E26" s="11" t="n"/>
+      <c r="F26" s="11" t="n"/>
+      <c r="G26" s="11" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="11" t="n"/>
+      <c r="E27" s="11" t="n"/>
+      <c r="F27" s="11" t="n"/>
+      <c r="G27" s="11" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="11" t="n"/>
+      <c r="E28" s="11" t="n"/>
+      <c r="F28" s="11" t="n"/>
+      <c r="G28" s="11" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="11" t="n"/>
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="11" t="n"/>
+      <c r="G29" s="11" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="10000000027@uitest.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="10000000027@uitest.com"/>
+    <hyperlink ref="B2" display="10000000027@uitest.com" r:id="rId1"/>
+    <hyperlink ref="B3" display="10000000027@uitest.com" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>